--- a/release/做成exe文件release的方法20220526.xlsx
+++ b/release/做成exe文件release的方法20220526.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanhao\Documents\GitHub\StockDataConvert\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC17B42-0239-4090-BCC9-7130566AD379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39726B16-36C5-4E3C-956C-93D78F0A492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="750" windowWidth="25755" windowHeight="11925" activeTab="3" xr2:uid="{04B1C8E6-D1D2-487F-90AC-09EEF0AE9AB6}"/>
+    <workbookView xWindow="5265" yWindow="75" windowWidth="19620" windowHeight="13830" firstSheet="1" activeTab="2" xr2:uid="{04B1C8E6-D1D2-487F-90AC-09EEF0AE9AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="3" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将右图的lib文件夹放入（lib里主要是所需的windows运行库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参照</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +122,6 @@
   </si>
   <si>
     <t>（这样即使用户本地没有安装java也可以运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将右面画面中的文件夹【jre】放入即可，里面是java的运行环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -652,6 +644,114 @@
   <si>
     <t>将 jre和32位系统用DLL与做成的exe合并到一起即可</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>将右面画面中的文件夹【jre】放入即可，里面是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java的运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lib文件夹放入（lib里主要是所需的windows运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1734,6 +1834,50 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434508</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>400910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDA99A9-AB37-D40C-879C-5FE2D52FC95B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="59031188"/>
+          <a:ext cx="8030696" cy="6163535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1780,7 +1924,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1895,7 +2039,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2017,182 +2161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>232629</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>86092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>317463</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>20815</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="组合 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6410FBB-7491-4A69-BC56-D3B966804106}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1381125" y="59031188"/>
-          <a:ext cx="16890963" cy="17713502"/>
-          <a:chOff x="1300529" y="39253990"/>
-          <a:chExt cx="15923809" cy="12247619"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="22" name="图片 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A131AA11-8F10-468B-B3E6-FB81F4ECC0AC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1300529" y="39253990"/>
-            <a:ext cx="15923809" cy="12247619"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="矩形 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376CA875-3F5F-4A19-BF98-7D2D6632B80F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8517548" y="40719375"/>
-            <a:ext cx="2124808" cy="659423"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="矩形 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAF986E-C2B1-434C-9496-FD36D3ABA02A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8325216" y="41937473"/>
-            <a:ext cx="7748221" cy="576996"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>494566</xdr:colOff>
-      <xdr:row>286</xdr:row>
-      <xdr:rowOff>109903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>265601</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>45796</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>500063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2207,8 +2185,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12849591" y="52250120"/>
-          <a:ext cx="1721827" cy="851759"/>
+          <a:off x="7138254" y="64641780"/>
+          <a:ext cx="910371" cy="652096"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2249,385 +2227,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>373</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>409296</xdr:colOff>
-      <xdr:row>422</xdr:row>
-      <xdr:rowOff>116532</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="组合 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A855D38-C14C-4403-BFF1-B35E39B29B9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="20716875" y="100226813"/>
-          <a:ext cx="19745046" cy="11784657"/>
-          <a:chOff x="19507933" y="79359737"/>
-          <a:chExt cx="18616700" cy="8643237"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="33" name="图片 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0AD9A9-7E79-4B27-9E23-BB2432770736}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="21738713" y="79757952"/>
-            <a:ext cx="16385920" cy="8245022"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="矩形 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7DA6FB-83D0-4961-B375-99525CE97340}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="25014702" y="82372428"/>
-            <a:ext cx="6541250" cy="449279"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="直接箭头连接符 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BA11C1-2F56-45BA-8F17-54104576EBF2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19507933" y="79359737"/>
-            <a:ext cx="5385288" cy="3251321"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>362</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>317463</xdr:colOff>
-      <xdr:row>432</xdr:row>
-      <xdr:rowOff>66609</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="62" name="组合 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700C4E7D-95FB-460B-BFB2-13B3E44E1DAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1381125" y="96607313"/>
-          <a:ext cx="16890963" cy="18235546"/>
-          <a:chOff x="1300529" y="82171442"/>
-          <a:chExt cx="15923809" cy="12247619"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="图片 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6079CC4E-3CA8-410C-9078-ED3AAE3AF3FF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1300529" y="82171442"/>
-            <a:ext cx="15923809" cy="12247619"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="矩形 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F76320E-5CAA-436B-9BCE-CF4488CAAD12}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1657717" y="84589328"/>
-            <a:ext cx="2216394" cy="576993"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="矩形 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F12F84A-C0C2-42CE-854F-F94A029B5124}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5156323" y="83618511"/>
-            <a:ext cx="11301778" cy="576993"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="矩形 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BC7531-901E-435D-AAC4-681C122AB8B9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12886226" y="93757140"/>
-            <a:ext cx="1666874" cy="576994"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>437</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>317463</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>20815</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2643,7 +2251,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381125" y="115966875"/>
+          <a:off x="1381125" y="95964375"/>
           <a:ext cx="16890963" cy="17213440"/>
           <a:chOff x="1300529" y="96403990"/>
           <a:chExt cx="15923809" cy="12247619"/>
@@ -2663,7 +2271,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2787,13 +2395,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>526</xdr:row>
+      <xdr:row>442</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>409296</xdr:colOff>
-      <xdr:row>578</xdr:row>
+      <xdr:row>494</xdr:row>
       <xdr:rowOff>116532</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2809,7 +2417,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20716875" y="139779375"/>
+          <a:off x="20716875" y="119776875"/>
           <a:ext cx="19745046" cy="12379970"/>
           <a:chOff x="19507933" y="106103004"/>
           <a:chExt cx="18616700" cy="9046220"/>
@@ -2829,7 +2437,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -2940,13 +2548,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>317463</xdr:colOff>
-      <xdr:row>581</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>66609</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2962,7 +2570,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381125" y="134588250"/>
+          <a:off x="1381125" y="114585750"/>
           <a:ext cx="16890963" cy="19235672"/>
           <a:chOff x="1300529" y="110068702"/>
           <a:chExt cx="15923809" cy="12247619"/>
@@ -2982,7 +2590,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3157,13 +2765,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>641104</xdr:colOff>
-      <xdr:row>589</xdr:row>
+      <xdr:row>505</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>317463</xdr:colOff>
-      <xdr:row>659</xdr:row>
+      <xdr:row>575</xdr:row>
       <xdr:rowOff>66610</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3179,7 +2787,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1331667" y="156162375"/>
+          <a:off x="1331667" y="136159875"/>
           <a:ext cx="16940421" cy="17235423"/>
           <a:chOff x="1291369" y="126004760"/>
           <a:chExt cx="15932969" cy="12247619"/>
@@ -3199,7 +2807,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3314,7 +2922,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3597,13 +3205,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>367823</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>266</xdr:row>
       <xdr:rowOff>529512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3620,7 +3228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3640,22 +3248,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>336</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>86847</xdr:colOff>
-      <xdr:row>356</xdr:row>
-      <xdr:rowOff>553311</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>584872</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>89318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075EF006-18B2-F266-430F-8C41CAACEAE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BDB079-6ADD-A5A8-F24A-5B1DBF5EE4AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1360714" y="77900893"/>
+          <a:ext cx="8068801" cy="6239746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448794</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>72302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53454B1A-2EDA-9C59-7B6A-788347AB3CD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,14 +3323,111 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="90558938"/>
-          <a:ext cx="8040222" cy="6173061"/>
+          <a:off x="1404938" y="83867626"/>
+          <a:ext cx="8021169" cy="6192114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1030</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>210570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAC683C-3D67-6E9C-04D6-18B8F0CBF044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15406688" y="86939438"/>
+          <a:ext cx="7382905" cy="7306695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>452437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FE3C26-3D84-5642-6E7E-65CD92101531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="84939187"/>
+          <a:ext cx="11787187" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4040,62 +3789,62 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4124,12 +3873,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -4137,18 +3886,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -4158,7 +3907,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" s="20"/>
       <c r="D9" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -4168,7 +3917,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -4177,7 +3926,7 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -4186,36 +3935,36 @@
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F15" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.4">
       <c r="D24" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -4241,7 +3990,7 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.4">
       <c r="D25" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -4267,7 +4016,7 @@
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.4">
       <c r="D26" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -4293,7 +4042,7 @@
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.4">
       <c r="D27" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -4319,7 +4068,7 @@
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.4">
       <c r="D28" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -4345,7 +4094,7 @@
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.4">
       <c r="D29" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
@@ -4371,141 +4120,141 @@
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B71" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="2:31" x14ac:dyDescent="0.4">
       <c r="B98" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="2:31" x14ac:dyDescent="0.4">
       <c r="AD102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="2:31" x14ac:dyDescent="0.4">
       <c r="AD103" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="2:31" x14ac:dyDescent="0.4">
       <c r="AE104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="2:31" x14ac:dyDescent="0.4">
       <c r="AD105" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE105" s="17"/>
     </row>
     <row r="106" spans="2:31" x14ac:dyDescent="0.4">
       <c r="AD106" s="17"/>
       <c r="AE106" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="2:31" x14ac:dyDescent="0.4">
       <c r="AD107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="2:31" x14ac:dyDescent="0.4">
       <c r="AE108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D122" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E123" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.4">
       <c r="E124" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="3:23" x14ac:dyDescent="0.4">
       <c r="W161" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C162" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D164" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="3:23" x14ac:dyDescent="0.4">
       <c r="E165" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C166" s="7"/>
       <c r="D166" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C167" s="7"/>
       <c r="D167" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C168" s="7"/>
       <c r="E168" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C169" s="7"/>
       <c r="F169" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C170" s="7"/>
       <c r="G170" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C171" s="7"/>
       <c r="E171" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C172" s="7"/>
       <c r="E172" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="3:23" x14ac:dyDescent="0.4">
       <c r="E173" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="3:23" x14ac:dyDescent="0.4">
       <c r="E175" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4517,10 +4266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23E818-7FC8-47F9-AD97-907BA2557096}">
-  <dimension ref="A1:AC666"/>
+  <dimension ref="A1:AC582"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4530,12 +4279,12 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="58.5" x14ac:dyDescent="0.4">
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58.5" x14ac:dyDescent="0.4">
@@ -4546,28 +4295,28 @@
     </row>
     <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.4">
       <c r="F11" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.4">
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.4">
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.4"/>
@@ -4583,22 +4332,22 @@
     </row>
     <row r="137" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
       <c r="AB137" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="29:29" ht="36.75" x14ac:dyDescent="0.4">
       <c r="AC157" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="29:29" ht="36.75" x14ac:dyDescent="0.4">
       <c r="AC158" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="216" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
       <c r="AB216" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
@@ -4608,103 +4357,103 @@
     </row>
     <row r="238" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
       <c r="AB238" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="287" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB287" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB242" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB252" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB267" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="3:28" x14ac:dyDescent="0.4">
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="3:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB288" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="302" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB302" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="305" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB305" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB309" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB310" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="351" spans="26:26" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="Z351" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB366" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="421" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB421" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="439" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB439" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB304" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="319" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB319" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C334" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB340" s="2" t="s">
+    <row r="440" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB440" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="354" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB354" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="357" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB357" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="370" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB370" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="371" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB371" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="431" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB431" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="450" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB450" s="2" t="s">
+    <row r="441" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB441" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="496" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB496" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="505" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB505" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="523" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB523" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="524" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB524" s="2" t="s">
+    <row r="497" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB497" s="2"/>
+    </row>
+    <row r="498" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB498" s="2"/>
+    </row>
+    <row r="520" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="AB520" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3" ht="57.75" x14ac:dyDescent="0.4">
+      <c r="C582" s="5" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="525" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB525" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="580" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB580" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="581" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB581" s="2"/>
-    </row>
-    <row r="582" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB582" s="2"/>
-    </row>
-    <row r="604" spans="28:28" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="AB604" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="666" spans="3:3" ht="57.75" x14ac:dyDescent="0.4">
-      <c r="C666" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4719,19 +4468,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF58A4B-9524-40D2-83AB-4BD75EEA2FDB}">
   <dimension ref="A2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
@@ -4747,7 +4496,7 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -4763,7 +4512,7 @@
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
@@ -4775,7 +4524,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
